--- a/public/mingzi1.xlsx
+++ b/public/mingzi1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\demo\webpackdemo\vuedemo\vuedemo\vuedemo1\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\myLife\newLife\myLife\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12666E1E-8812-4905-94FF-41ED5AEAAEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2974B9FC-86B7-406F-8A9D-5B9CC58A1A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>小明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,9 +33,6 @@
   <si>
     <t>小红</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红</t>
   </si>
   <si>
     <t>姓名</t>
@@ -380,23 +377,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -407,7 +404,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -418,40 +415,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>111</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
